--- a/analysis/5.1/td_0.12s.xlsx
+++ b/analysis/5.1/td_0.12s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -130,13 +130,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.12</v>
       </c>
       <c r="D4">
-        <v>252.4343600000023</v>
+        <v>424.57548000000332</v>
       </c>
     </row>
     <row r="5">
@@ -144,27 +144,27 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>291.83520000000237</v>
+        <v>252.4343600000023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C6">
         <v>0.12</v>
       </c>
       <c r="D6">
-        <v>278.69273333332978</v>
+        <v>291.83520000000237</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.12</v>
       </c>
       <c r="D7">
-        <v>268.81273333333223</v>
+        <v>388.43403999999953</v>
       </c>
     </row>
     <row r="8">
@@ -186,41 +186,41 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.12</v>
       </c>
       <c r="D8">
-        <v>225.05064000000192</v>
+        <v>278.69273333332978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.12</v>
       </c>
       <c r="D9">
-        <v>256.65539999999908</v>
+        <v>268.81273333333223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.12</v>
       </c>
       <c r="D10">
-        <v>218.76133333333001</v>
+        <v>225.05064000000192</v>
       </c>
     </row>
     <row r="11">
@@ -228,13 +228,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.12</v>
       </c>
       <c r="D11">
-        <v>279.29244000000028</v>
+        <v>256.65539999999908</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12">
         <v>0.12</v>
       </c>
       <c r="D12">
-        <v>192.81848421052641</v>
+        <v>218.76133333333001</v>
       </c>
     </row>
     <row r="13">
@@ -256,41 +256,41 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.12</v>
       </c>
       <c r="D13">
-        <v>276.77220000000256</v>
+        <v>279.29244000000028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.12</v>
       </c>
       <c r="D14">
-        <v>280.45144000000181</v>
+        <v>192.81848421052641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
         <v>0.12</v>
       </c>
       <c r="D15">
-        <v>279.45132000000075</v>
+        <v>276.77220000000256</v>
       </c>
     </row>
     <row r="16">
@@ -298,13 +298,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B16">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C16">
         <v>0.12</v>
       </c>
       <c r="D16">
-        <v>229.62900000000167</v>
+        <v>280.45144000000181</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C17">
         <v>0.12</v>
       </c>
       <c r="D17">
-        <v>252.61415999999906</v>
+        <v>279.45132000000075</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.12</v>
       </c>
       <c r="D18">
-        <v>276.71096000000199</v>
+        <v>229.62900000000167</v>
       </c>
     </row>
     <row r="19">
@@ -340,41 +340,41 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.12</v>
       </c>
       <c r="D19">
-        <v>278.570840000001</v>
+        <v>252.61415999999906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C20">
         <v>0.12</v>
       </c>
       <c r="D20">
-        <v>242.63255999999976</v>
+        <v>276.71096000000199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21">
         <v>0.12</v>
       </c>
       <c r="D21">
-        <v>214.59231999999764</v>
+        <v>278.570840000001</v>
       </c>
     </row>
     <row r="22">
@@ -382,13 +382,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B22">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C22">
         <v>0.12</v>
       </c>
       <c r="D22">
-        <v>221.81491428571448</v>
+        <v>242.63255999999976</v>
       </c>
     </row>
     <row r="23">
@@ -396,13 +396,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C23">
         <v>0.12</v>
       </c>
       <c r="D23">
-        <v>275.72995999999915</v>
+        <v>214.59231999999764</v>
       </c>
     </row>
     <row r="24">
@@ -410,13 +410,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.12</v>
       </c>
       <c r="D24">
-        <v>231.42409999999606</v>
+        <v>221.81491428571448</v>
       </c>
     </row>
     <row r="25">
@@ -424,41 +424,41 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C25">
         <v>0.12</v>
       </c>
       <c r="D25">
-        <v>245.64872000000145</v>
+        <v>275.72995999999915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26">
         <v>0.12</v>
       </c>
       <c r="D26">
-        <v>228.70228571428399</v>
+        <v>231.42409999999606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C27">
         <v>0.12</v>
       </c>
       <c r="D27">
-        <v>195.34808000000174</v>
+        <v>245.64872000000145</v>
       </c>
     </row>
     <row r="28">
@@ -466,13 +466,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B28">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C28">
         <v>0.12</v>
       </c>
       <c r="D28">
-        <v>195.56796000000068</v>
+        <v>228.70228571428399</v>
       </c>
     </row>
     <row r="29">
@@ -480,13 +480,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.12</v>
       </c>
       <c r="D29">
-        <v>195.50788000000296</v>
+        <v>195.34808000000174</v>
       </c>
     </row>
     <row r="30">
@@ -494,41 +494,41 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B30">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C30">
         <v>0.12</v>
       </c>
       <c r="D30">
-        <v>219.59506666666761</v>
+        <v>195.56796000000068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B31">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.12</v>
       </c>
       <c r="D31">
-        <v>210.56599999999705</v>
+        <v>195.50788000000296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C32">
         <v>0.12</v>
       </c>
       <c r="D32">
-        <v>200.68843636363613</v>
+        <v>219.59506666666761</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B33">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C33">
         <v>0.12</v>
       </c>
       <c r="D33">
-        <v>200.66616666666712</v>
+        <v>210.56599999999705</v>
       </c>
     </row>
     <row r="34">
@@ -550,13 +550,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B34">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.12</v>
       </c>
       <c r="D34">
-        <v>218.50039999999785</v>
+        <v>200.68843636363613</v>
       </c>
     </row>
     <row r="35">
@@ -564,41 +564,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B35">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C35">
         <v>0.12</v>
       </c>
       <c r="D35">
-        <v>218.47666666666592</v>
+        <v>200.66616666666712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B36">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C36">
         <v>0.12</v>
       </c>
       <c r="D36">
-        <v>199.64407272727269</v>
+        <v>218.50039999999785</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B37">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C37">
         <v>0.12</v>
       </c>
       <c r="D37">
-        <v>199.62218181818275</v>
+        <v>218.47666666666592</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B38">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C38">
         <v>0.12</v>
       </c>
       <c r="D38">
-        <v>199.6497846153849</v>
+        <v>199.64407272727269</v>
       </c>
     </row>
     <row r="39">
@@ -620,13 +620,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B39">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C39">
         <v>0.12</v>
       </c>
       <c r="D39">
-        <v>199.56381818181728</v>
+        <v>199.62218181818275</v>
       </c>
     </row>
     <row r="40">
@@ -634,41 +634,41 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B40">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C40">
         <v>0.12</v>
       </c>
       <c r="D40">
-        <v>198.80193333333335</v>
+        <v>199.6497846153849</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B41">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.12</v>
       </c>
       <c r="D41">
-        <v>198.71326666666596</v>
+        <v>199.56381818181728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B42">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C42">
         <v>0.12</v>
       </c>
       <c r="D42">
-        <v>193.70544000000069</v>
+        <v>198.80193333333335</v>
       </c>
     </row>
     <row r="43">
@@ -676,13 +676,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B43">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C43">
         <v>0.12</v>
       </c>
       <c r="D43">
-        <v>198.65483333333452</v>
+        <v>198.71326666666596</v>
       </c>
     </row>
     <row r="44">
@@ -690,41 +690,41 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B44">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C44">
         <v>0.12</v>
       </c>
       <c r="D44">
-        <v>216.70965714285666</v>
+        <v>193.70544000000069</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B45">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C45">
         <v>0.12</v>
       </c>
       <c r="D45">
-        <v>197.71559999999985</v>
+        <v>198.65483333333452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B46">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C46">
         <v>0.12</v>
       </c>
       <c r="D46">
-        <v>192.46492000000202</v>
+        <v>216.70965714285666</v>
       </c>
     </row>
     <row r="47">
@@ -732,26 +732,54 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B47">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C47">
         <v>0.12</v>
       </c>
       <c r="D47">
-        <v>192.84487999999874</v>
+        <v>197.71559999999985</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>110.09999999999999</v>
+      </c>
+      <c r="B48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.12</v>
+      </c>
+      <c r="D48">
+        <v>192.46492000000202</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>110.09999999999999</v>
+      </c>
+      <c r="B49">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.12</v>
+      </c>
+      <c r="D49">
+        <v>192.84487999999874</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
         <v>120.09999999999999</v>
       </c>
-      <c r="B48">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C48">
-        <v>0.12</v>
-      </c>
-      <c r="D48">
+      <c r="B50">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.12</v>
+      </c>
+      <c r="D50">
         <v>187.84784444444429</v>
       </c>
     </row>
